--- a/data/trans_orig/P1404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AE468D-1D1D-4CBD-BC82-7C73547CF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4034416D-8FD6-4330-9525-E5D9CB6D7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E27BF9ED-C4F7-49A6-8723-4E98F291FFC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17472E58-88D9-42B9-96CF-1ACCAE8DEA70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,19 +95,19 @@
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>16,44%</t>
@@ -116,7 +116,7 @@
     <t>14,91%</t>
   </si>
   <si>
-    <t>18,05%</t>
+    <t>17,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,25 +125,25 @@
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>81,95%</t>
+    <t>82,08%</t>
   </si>
   <si>
     <t>85,09%</t>
@@ -164,532 +164,538 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>93,05%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -698,100 +704,100 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>94,29%</t>
+    <t>94,27%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
@@ -803,118 +809,115 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>69,47%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>78,66%</t>
   </si>
   <si>
     <t>88,24%</t>
@@ -926,16 +929,19 @@
     <t>11,66%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>10,08%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>11,8%</t>
@@ -944,91 +950,88 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>13,54%</t>
+    <t>13,43%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>86,46%</t>
+    <t>86,57%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4848093E-CAA3-4DAC-9F8B-DD351013B4AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2932B9BA-8860-4143-ADD9-6E813CC7CF88}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2236,10 +2239,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>335</v>
@@ -2248,13 +2251,13 @@
         <v>348181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>602</v>
@@ -2263,13 +2266,13 @@
         <v>607893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>3016832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>2962</v>
@@ -2299,28 +2302,28 @@
         <v>3031017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>5909</v>
       </c>
       <c r="N18" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2365,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2376,7 +2379,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41CF55-7524-4439-9F26-2BC92E110163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76916E5-A927-42A3-BBE1-0AB6CE4E9423}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,7 +2415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2525,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2555,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2573,13 @@
         <v>217534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -2585,13 +2588,13 @@
         <v>354507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>533</v>
@@ -2600,13 +2603,13 @@
         <v>572041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2624,13 @@
         <v>757109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>913</v>
@@ -2636,13 +2639,13 @@
         <v>983289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1622</v>
@@ -2651,13 +2654,13 @@
         <v>1740399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2776,13 +2779,13 @@
         <v>135312</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -2791,13 +2794,13 @@
         <v>118814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
@@ -2806,13 +2809,13 @@
         <v>254126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2830,13 @@
         <v>1827237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1530</v>
@@ -2842,13 +2845,13 @@
         <v>1635778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3263</v>
@@ -2857,13 +2860,13 @@
         <v>3463015</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2952,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2967,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2985,13 @@
         <v>35828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2997,13 +3000,13 @@
         <v>17519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3012,13 +3015,13 @@
         <v>53347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3036,13 @@
         <v>445353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -3048,13 +3051,13 @@
         <v>441112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>806</v>
@@ -3063,13 +3066,13 @@
         <v>886465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3191,13 @@
         <v>388674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>452</v>
@@ -3203,13 +3206,13 @@
         <v>490840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -3218,13 +3221,13 @@
         <v>879514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3242,13 @@
         <v>3029699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>2840</v>
@@ -3254,13 +3257,13 @@
         <v>3060180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>5691</v>
@@ -3269,13 +3272,13 @@
         <v>6089879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3334,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F238B4C6-C597-47CB-9B97-40DA41246A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF42350E-FB73-4C55-8957-BD48CB1F3C43}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3367,7 +3370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3480,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3495,7 +3498,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3525,13 +3528,13 @@
         <v>179049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -3540,13 +3543,13 @@
         <v>272147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>426</v>
@@ -3555,13 +3558,13 @@
         <v>451196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3579,13 @@
         <v>575298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>654</v>
@@ -3591,13 +3594,13 @@
         <v>722513</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1228</v>
@@ -3606,13 +3609,13 @@
         <v>1297811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3701,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3716,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3734,13 @@
         <v>161424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -3746,13 +3749,13 @@
         <v>162863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>296</v>
@@ -3761,13 +3764,13 @@
         <v>324287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3785,13 @@
         <v>1914961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>1763</v>
@@ -3797,13 +3800,13 @@
         <v>1825437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>3564</v>
@@ -3812,13 +3815,13 @@
         <v>3740398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3922,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3940,13 @@
         <v>46190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3952,13 +3955,13 @@
         <v>34327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3967,13 +3970,13 @@
         <v>80517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3991,13 @@
         <v>500696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -4003,13 +4006,13 @@
         <v>514813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -4018,13 +4021,13 @@
         <v>1015509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4146,13 @@
         <v>386663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4158,13 +4161,13 @@
         <v>469338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>790</v>
@@ -4173,13 +4176,13 @@
         <v>856000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4197,13 @@
         <v>2990955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>2915</v>
@@ -4209,13 +4212,13 @@
         <v>3062762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>5751</v>
@@ -4224,13 +4227,13 @@
         <v>6053718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4289,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0705B-85DB-4CF2-AC8D-D92110D6799A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA98F7C-DF4C-409A-91CA-B97FCA629D00}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4435,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4444,13 +4447,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4465,7 +4468,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4483,13 @@
         <v>143504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -4495,13 +4498,13 @@
         <v>271784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>697</v>
@@ -4510,13 +4513,13 @@
         <v>415289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4534,13 @@
         <v>393174</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H6" s="7">
         <v>928</v>
@@ -4546,13 +4549,13 @@
         <v>558269</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>1410</v>
@@ -4561,13 +4564,13 @@
         <v>951444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4656,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4665,13 +4668,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4689,13 @@
         <v>270806</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>434</v>
@@ -4701,13 +4704,13 @@
         <v>357820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -4716,13 +4719,13 @@
         <v>628626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4740,13 @@
         <v>1887658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>2481</v>
@@ -4752,13 +4755,13 @@
         <v>1887949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>4141</v>
@@ -4767,13 +4770,13 @@
         <v>3775607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4862,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4877,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4895,13 @@
         <v>78503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4907,13 +4910,13 @@
         <v>85171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -4922,13 +4925,13 @@
         <v>163674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4946,13 @@
         <v>594536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>857</v>
@@ -4958,13 +4961,13 @@
         <v>628397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>1443</v>
@@ -4973,13 +4976,13 @@
         <v>1222933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5065,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5077,13 +5080,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5101,13 @@
         <v>492813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>1072</v>
@@ -5113,13 +5116,13 @@
         <v>714776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1699</v>
@@ -5128,13 +5131,13 @@
         <v>1207589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5152,13 @@
         <v>2875368</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>4266</v>
@@ -5164,28 +5167,28 @@
         <v>3074616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>6994</v>
       </c>
       <c r="N18" s="7">
-        <v>5949984</v>
+        <v>5949983</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5230,7 @@
         <v>8695</v>
       </c>
       <c r="N19" s="7">
-        <v>7161053</v>
+        <v>7161052</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4034416D-8FD6-4330-9525-E5D9CB6D7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB22F428-5A67-45A7-8545-8674E5E370CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17472E58-88D9-42B9-96CF-1ACCAE8DEA70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65A1DDDE-D208-4D5E-9888-E819D7155EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="321">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,25 @@
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>20,43%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +122,25 @@
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>79,57%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,22 +161,22 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>6,17%</t>
@@ -191,7 +185,7 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,6%</t>
+    <t>93,57%</t>
   </si>
   <si>
     <t>95,83%</t>
@@ -200,10 +194,10 @@
     <t>94,46%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>94,64%</t>
@@ -212,7 +206,7 @@
     <t>93,83%</t>
   </si>
   <si>
-    <t>95,4%</t>
+    <t>95,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,55 +224,49 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>97,31%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -287,19 +275,19 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>9,13%</t>
@@ -308,31 +296,31 @@
     <t>8,45%</t>
   </si>
   <si>
-    <t>9,86%</t>
+    <t>9,85%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>90,14%</t>
+    <t>90,15%</t>
   </si>
   <si>
     <t>91,55%</t>
@@ -353,55 +341,55 @@
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -410,55 +398,55 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -473,112 +461,106 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -590,7 +572,7 @@
     <t>23,74%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>26,74%</t>
@@ -599,19 +581,19 @@
     <t>27,36%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>76,26%</t>
@@ -620,82 +602,70 @@
     <t>73,26%</t>
   </si>
   <si>
-    <t>79,05%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>9,63%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>90,37%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -704,46 +674,46 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>11,26%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>94,27%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>11,45%</t>
@@ -752,16 +722,16 @@
     <t>10,39%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>12,67%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>12,39%</t>
@@ -770,13 +740,13 @@
     <t>11,61%</t>
   </si>
   <si>
-    <t>13,19%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>87,43%</t>
+    <t>87,33%</t>
   </si>
   <si>
     <t>89,61%</t>
@@ -785,16 +755,16 @@
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>86,81%</t>
+    <t>86,79%</t>
   </si>
   <si>
     <t>88,39%</t>
@@ -1443,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2932B9BA-8860-4143-ADD9-6E813CC7CF88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382F813D-7B96-48CD-AD9B-B266FBFC3AFA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,10 +1606,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>387</v>
@@ -1648,19 +1618,19 @@
         <v>385703</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>884</v>
@@ -1669,13 +1639,13 @@
         <v>885805</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>1058</v>
@@ -1684,13 +1654,13 @@
         <v>1075328</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>1942</v>
@@ -1699,13 +1669,13 @@
         <v>1961133</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1690,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1735,13 +1705,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1750,18 +1720,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1779,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1794,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1809,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1794,13 @@
         <v>88069</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>83</v>
@@ -1839,13 +1809,13 @@
         <v>87932</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>170</v>
@@ -1854,34 +1824,34 @@
         <v>176001</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1562</v>
       </c>
       <c r="D10" s="7">
-        <v>1605343</v>
+        <v>1605344</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1471</v>
@@ -1890,13 +1860,13 @@
         <v>1499741</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3033</v>
@@ -1905,13 +1875,13 @@
         <v>3105085</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,16 +1893,16 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -1941,13 +1911,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -1956,18 +1926,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1985,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2000,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2015,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2000,13 @@
         <v>25724</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2045,13 +2015,13 @@
         <v>20465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -2060,19 +2030,19 @@
         <v>46189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>501</v>
@@ -2081,13 +2051,13 @@
         <v>525684</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -2096,13 +2066,13 @@
         <v>455947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>934</v>
@@ -2111,13 +2081,13 @@
         <v>981631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2102,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2147,13 +2117,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2162,13 +2132,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2206,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2221,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2206,13 @@
         <v>259712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>335</v>
@@ -2251,13 +2221,13 @@
         <v>348181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>602</v>
@@ -2266,34 +2236,34 @@
         <v>607893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>2947</v>
       </c>
       <c r="D18" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>2962</v>
@@ -2302,13 +2272,13 @@
         <v>3031017</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>5909</v>
@@ -2317,13 +2287,13 @@
         <v>6047848</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,16 +2305,16 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2353,13 +2323,13 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
@@ -2368,18 +2338,18 @@
         <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76916E5-A927-42A3-BBE1-0AB6CE4E9423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC52D4A0-4286-4542-BAE0-6515C5EA7958}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2415,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2528,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2558,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2543,13 @@
         <v>217534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -2588,13 +2558,13 @@
         <v>354507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>533</v>
@@ -2603,19 +2573,19 @@
         <v>572041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>709</v>
@@ -2624,13 +2594,13 @@
         <v>757109</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>913</v>
@@ -2639,13 +2609,13 @@
         <v>983289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>1622</v>
@@ -2654,13 +2624,13 @@
         <v>1740399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2645,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1247</v>
@@ -2690,13 +2660,13 @@
         <v>1337796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2155</v>
@@ -2705,18 +2675,18 @@
         <v>2312440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2734,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2749,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2764,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2749,13 @@
         <v>135312</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>103</v>
@@ -2794,13 +2764,13 @@
         <v>118814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
@@ -2809,19 +2779,19 @@
         <v>254126</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1733</v>
@@ -2830,13 +2800,13 @@
         <v>1827237</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>1530</v>
@@ -2845,13 +2815,13 @@
         <v>1635778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>3263</v>
@@ -2860,13 +2830,13 @@
         <v>3463015</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2851,13 @@
         <v>1962549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -2896,13 +2866,13 @@
         <v>1754592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3488</v>
@@ -2911,18 +2881,18 @@
         <v>3717141</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2940,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2955,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2970,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2955,13 @@
         <v>35828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3000,13 +2970,13 @@
         <v>17519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3015,19 +2985,19 @@
         <v>53347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>409</v>
@@ -3036,13 +3006,13 @@
         <v>445353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -3051,13 +3021,13 @@
         <v>441112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>806</v>
@@ -3066,13 +3036,13 @@
         <v>886465</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3057,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -3102,13 +3072,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -3117,13 +3087,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3161,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3176,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3161,13 @@
         <v>388674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>452</v>
@@ -3206,13 +3176,13 @@
         <v>490840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>802</v>
@@ -3221,19 +3191,19 @@
         <v>879514</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>2851</v>
@@ -3242,13 +3212,13 @@
         <v>3029699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>2840</v>
@@ -3257,13 +3227,13 @@
         <v>3060180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>5691</v>
@@ -3272,13 +3242,13 @@
         <v>6089879</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3263,13 @@
         <v>3418373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3292</v>
@@ -3308,13 +3278,13 @@
         <v>3551020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6493</v>
@@ -3323,18 +3293,18 @@
         <v>6969393</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +3323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF42350E-FB73-4C55-8957-BD48CB1F3C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B3684C-B9F1-4754-B2AC-288D58A8EDB4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3483,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3498,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3513,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3498,13 @@
         <v>179049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>238</v>
@@ -3543,13 +3513,13 @@
         <v>272147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>426</v>
@@ -3558,19 +3528,19 @@
         <v>451196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>574</v>
@@ -3579,13 +3549,13 @@
         <v>575298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H6" s="7">
         <v>654</v>
@@ -3594,13 +3564,13 @@
         <v>722513</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>1228</v>
@@ -3609,13 +3579,13 @@
         <v>1297811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3600,13 @@
         <v>754347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>892</v>
@@ -3645,13 +3615,13 @@
         <v>994660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>1654</v>
@@ -3660,18 +3630,18 @@
         <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3689,7 +3659,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3704,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3719,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3704,13 @@
         <v>161424</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -3749,13 +3719,13 @@
         <v>162863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>296</v>
@@ -3764,19 +3734,19 @@
         <v>324287</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1801</v>
@@ -3785,13 +3755,13 @@
         <v>1914961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>1763</v>
@@ -3800,13 +3770,13 @@
         <v>1825437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>3564</v>
@@ -3815,13 +3785,13 @@
         <v>3740398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3806,13 @@
         <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -3851,13 +3821,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3860</v>
@@ -3866,18 +3836,18 @@
         <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3895,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3910,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3925,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3910,13 @@
         <v>46190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3955,13 +3925,13 @@
         <v>34327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3970,19 +3940,19 @@
         <v>80517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>461</v>
@@ -3991,13 +3961,13 @@
         <v>500696</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -4006,13 +3976,13 @@
         <v>514813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>959</v>
@@ -4021,13 +3991,13 @@
         <v>1015509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4012,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -4057,13 +4027,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1027</v>
@@ -4072,13 +4042,13 @@
         <v>1096026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4116,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4131,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4116,13 @@
         <v>386663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -4161,13 +4131,13 @@
         <v>469338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>790</v>
@@ -4176,19 +4146,19 @@
         <v>856000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>2836</v>
@@ -4197,13 +4167,13 @@
         <v>2990955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H18" s="7">
         <v>2915</v>
@@ -4212,13 +4182,13 @@
         <v>3062762</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M18" s="7">
         <v>5751</v>
@@ -4227,13 +4197,13 @@
         <v>6053718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4218,13 @@
         <v>3377618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3326</v>
@@ -4263,13 +4233,13 @@
         <v>3532100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6541</v>
@@ -4278,18 +4248,18 @@
         <v>6909718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA98F7C-DF4C-409A-91CA-B97FCA629D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A66D2B-94DD-4526-843B-58D8659DD1EF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4325,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4438,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4447,13 +4417,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4462,13 +4432,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4453,13 @@
         <v>143504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -4498,13 +4468,13 @@
         <v>271784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M5" s="7">
         <v>697</v>
@@ -4513,19 +4483,19 @@
         <v>415289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>482</v>
@@ -4534,13 +4504,13 @@
         <v>393174</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7">
         <v>928</v>
@@ -4549,13 +4519,13 @@
         <v>558269</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
         <v>1410</v>
@@ -4564,13 +4534,13 @@
         <v>951444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4555,13 @@
         <v>536678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1422</v>
@@ -4600,13 +4570,13 @@
         <v>832816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2108</v>
@@ -4615,18 +4585,18 @@
         <v>1369495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4644,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4653,13 +4623,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4668,13 +4638,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4659,13 @@
         <v>270806</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>434</v>
@@ -4704,13 +4674,13 @@
         <v>357820</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -4719,19 +4689,19 @@
         <v>628626</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1660</v>
@@ -4740,13 +4710,13 @@
         <v>1887658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>2481</v>
@@ -4755,13 +4725,13 @@
         <v>1887949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>4141</v>
@@ -4770,13 +4740,13 @@
         <v>3775607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4761,13 @@
         <v>2158464</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>2916</v>
@@ -4806,13 +4776,13 @@
         <v>2246487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>4904</v>
@@ -4821,18 +4791,18 @@
         <v>4404951</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4850,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4865,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4880,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4865,13 @@
         <v>78503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4910,13 +4880,13 @@
         <v>85171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>240</v>
@@ -4925,19 +4895,19 @@
         <v>163674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>586</v>
@@ -4946,13 +4916,13 @@
         <v>594536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>857</v>
@@ -4961,13 +4931,13 @@
         <v>628397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1443</v>
@@ -4976,13 +4946,13 @@
         <v>1222933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4967,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>1002</v>
@@ -5012,13 +4982,13 @@
         <v>713568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1683</v>
@@ -5027,13 +4997,13 @@
         <v>1386607</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5065,13 +5035,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5080,13 +5050,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5071,13 @@
         <v>492813</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>1072</v>
@@ -5116,13 +5086,13 @@
         <v>714776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1699</v>
@@ -5131,19 +5101,19 @@
         <v>1207589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>2728</v>
@@ -5152,13 +5122,13 @@
         <v>2875368</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7">
         <v>4266</v>
@@ -5167,13 +5137,13 @@
         <v>3074616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>6994</v>
@@ -5182,13 +5152,13 @@
         <v>5949983</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5173,13 @@
         <v>3368181</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>5340</v>
@@ -5218,13 +5188,13 @@
         <v>3792872</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>8695</v>
@@ -5233,18 +5203,18 @@
         <v>7161052</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7115D2F7-3447-4F6A-9006-167C16345536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{491A9792-2819-4D1E-9C96-0D95D113398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B600224F-3D12-4580-BC3B-23A13D6E9F3B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB620370-8255-48DC-B004-3BC073F9AD55}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -728,202 +728,214 @@
     <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F9A7CB-C70D-462C-A6BF-902BF38269B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE216436-A2B1-4B4C-B311-B316A02A3DEE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,7 +1549,7 @@
         <v>1942</v>
       </c>
       <c r="N5" s="7">
-        <v>1961133</v>
+        <v>1961132</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1588,7 +1600,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1662,7 +1674,7 @@
         <v>1562</v>
       </c>
       <c r="D8" s="7">
-        <v>1605343</v>
+        <v>1605344</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1725,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1984,7 @@
         <v>2947</v>
       </c>
       <c r="D14" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1987,7 +1999,7 @@
         <v>2962</v>
       </c>
       <c r="I14" s="7">
-        <v>3031017</v>
+        <v>3031016</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2002,7 +2014,7 @@
         <v>5909</v>
       </c>
       <c r="N14" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2023,7 +2035,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2050,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2065,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE3197-409E-4B02-A969-6289B6F2478B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BADB6D-1A13-4307-A613-952EEE727A0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2285,7 @@
         <v>913</v>
       </c>
       <c r="I5" s="7">
-        <v>983289</v>
+        <v>983290</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2324,7 +2336,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2598,7 +2610,7 @@
         <v>806</v>
       </c>
       <c r="N11" s="7">
-        <v>886465</v>
+        <v>886466</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2649,7 +2661,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB9E8BB-7204-47D7-A741-A95B394448E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B91060-46BD-40D6-87A5-B1C3C944E3EE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3361,7 @@
         <v>959</v>
       </c>
       <c r="N11" s="7">
-        <v>1015509</v>
+        <v>1015510</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3400,7 +3412,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1A3F3A-8300-4245-BD6F-2DA10C942B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97BB61F-CF81-45F4-8D2C-E04F4CAC8972}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,46 +3721,46 @@
         <v>204</v>
       </c>
       <c r="D4" s="7">
-        <v>143504</v>
+        <v>135618</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>493</v>
       </c>
       <c r="I4" s="7">
-        <v>271784</v>
+        <v>245059</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>697</v>
       </c>
       <c r="N4" s="7">
-        <v>415289</v>
+        <v>380677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,46 +3772,46 @@
         <v>482</v>
       </c>
       <c r="D5" s="7">
-        <v>393174</v>
+        <v>374628</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>928</v>
       </c>
       <c r="I5" s="7">
-        <v>558270</v>
+        <v>505298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1410</v>
       </c>
       <c r="N5" s="7">
-        <v>951444</v>
+        <v>879926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3823,7 @@
         <v>686</v>
       </c>
       <c r="D6" s="7">
-        <v>536678</v>
+        <v>510246</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3838,7 @@
         <v>1421</v>
       </c>
       <c r="I6" s="7">
-        <v>830054</v>
+        <v>750357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3853,7 @@
         <v>2107</v>
       </c>
       <c r="N6" s="7">
-        <v>1366733</v>
+        <v>1260603</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,46 +3876,46 @@
         <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>270806</v>
+        <v>254021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>434</v>
       </c>
       <c r="I7" s="7">
-        <v>357820</v>
+        <v>432853</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>762</v>
       </c>
       <c r="N7" s="7">
-        <v>628626</v>
+        <v>686875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3927,46 @@
         <v>1660</v>
       </c>
       <c r="D8" s="7">
-        <v>1887658</v>
+        <v>2032962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2481</v>
       </c>
       <c r="I8" s="7">
-        <v>1887949</v>
+        <v>1801521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>4141</v>
       </c>
       <c r="N8" s="7">
-        <v>3775607</v>
+        <v>3834482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3978,7 @@
         <v>1988</v>
       </c>
       <c r="D9" s="7">
-        <v>2158464</v>
+        <v>2286983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3993,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2245769</v>
+        <v>2234374</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +4008,7 @@
         <v>4903</v>
       </c>
       <c r="N9" s="7">
-        <v>4404233</v>
+        <v>4521357</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,46 +4031,46 @@
         <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>78503</v>
+        <v>74392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>85171</v>
+        <v>78240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
       </c>
       <c r="N10" s="7">
-        <v>163674</v>
+        <v>152631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,46 +4082,46 @@
         <v>586</v>
       </c>
       <c r="D11" s="7">
-        <v>594536</v>
+        <v>572231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
       </c>
       <c r="I11" s="7">
-        <v>628397</v>
+        <v>581903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1443</v>
       </c>
       <c r="N11" s="7">
-        <v>1222933</v>
+        <v>1154135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4133,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4148,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713568</v>
+        <v>660143</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4163,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1386607</v>
+        <v>1306766</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4186,46 @@
         <v>627</v>
       </c>
       <c r="D13" s="7">
-        <v>492813</v>
+        <v>464031</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1072</v>
       </c>
       <c r="I13" s="7">
-        <v>714776</v>
+        <v>756152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1699</v>
       </c>
       <c r="N13" s="7">
-        <v>1207589</v>
+        <v>1220182</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4237,46 @@
         <v>2728</v>
       </c>
       <c r="D14" s="7">
-        <v>2875368</v>
+        <v>2979821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4266</v>
       </c>
       <c r="I14" s="7">
-        <v>3074616</v>
+        <v>2888722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>6994</v>
       </c>
       <c r="N14" s="7">
-        <v>5949984</v>
+        <v>5868544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4288,7 @@
         <v>3355</v>
       </c>
       <c r="D15" s="7">
-        <v>3368181</v>
+        <v>3443852</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4303,7 @@
         <v>5338</v>
       </c>
       <c r="I15" s="7">
-        <v>3789392</v>
+        <v>3644874</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4318,7 @@
         <v>8693</v>
       </c>
       <c r="N15" s="7">
-        <v>7157573</v>
+        <v>7088726</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
